--- a/dados_2020/bigml/Resultado.xlsx
+++ b/dados_2020/bigml/Resultado.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\tccpos\COVID\code\dados_2021\bigml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\tccpos\COVID\code\dados_2020\bigml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2EC9FE-06E3-4A88-81EB-2C64B4EE5848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B122AA93-C691-4134-9C4B-724735106A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{94F89292-89B3-4363-B5A8-810F6F59C7B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{94F89292-89B3-4363-B5A8-810F6F59C7B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>AIC</t>
   </si>
@@ -199,6 +201,18 @@
   </si>
   <si>
     <t>Posição</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Método exponencial de tendências amortecido. Erro multiplicativo, tendência amortecido multiplicativa e nenhum modelo de sazonalidade.</t>
+  </si>
+  <si>
+    <t>Método exponencial de tendência amortecido com erros multiplicativos. Erro multiplicativo, tendência ateída aditiva e nenhum modelo de sazonalidade.</t>
   </si>
 </sst>
 </file>
@@ -262,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -270,6 +284,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,20 +609,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117BAC77-0226-4DEA-91E2-462331F742B8}">
   <dimension ref="E5:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="119.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="119.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>54</v>
       </c>
@@ -622,7 +645,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" s="2">
         <v>1</v>
       </c>
@@ -645,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
         <v>2</v>
       </c>
@@ -668,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E8" s="2">
         <v>3</v>
       </c>
@@ -691,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <v>4</v>
       </c>
@@ -714,7 +737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <v>5</v>
       </c>
@@ -737,7 +760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <v>6</v>
       </c>
@@ -760,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <v>7</v>
       </c>
@@ -783,7 +806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E13" s="2">
         <v>8</v>
       </c>
@@ -806,7 +829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E14" s="2">
         <v>9</v>
       </c>
@@ -829,7 +852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <v>10</v>
       </c>
@@ -852,7 +875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <v>11</v>
       </c>
@@ -875,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <v>12</v>
       </c>
@@ -898,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <v>13</v>
       </c>
@@ -921,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <v>14</v>
       </c>
@@ -944,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <v>15</v>
       </c>
@@ -967,7 +990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <v>16</v>
       </c>
@@ -990,7 +1013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <v>17</v>
       </c>
@@ -1013,7 +1036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E23" s="2">
         <v>18</v>
       </c>
@@ -1036,7 +1059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E24" s="2">
         <v>19</v>
       </c>
@@ -1063,4 +1086,453 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E32740-E9A6-45CE-AD75-4A9C229B21BD}">
+  <dimension ref="D7:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="6" max="6" width="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3">
+        <v>529.42650000000003</v>
+      </c>
+      <c r="H8" s="3">
+        <v>531.89700000000005</v>
+      </c>
+      <c r="I8" s="3">
+        <v>539.7079</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3">
+        <v>530.88530000000003</v>
+      </c>
+      <c r="H9" s="3">
+        <v>532.59960000000001</v>
+      </c>
+      <c r="I9" s="3">
+        <v>539.45320000000004</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="3">
+        <v>672.41099999999994</v>
+      </c>
+      <c r="H10" s="3">
+        <v>674.88160000000005</v>
+      </c>
+      <c r="I10" s="3">
+        <v>682.69240000000002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3">
+        <v>685.69880000000001</v>
+      </c>
+      <c r="H11" s="3">
+        <v>686.34739999999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>690.83950000000004</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.99180000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="3">
+        <v>710.3279</v>
+      </c>
+      <c r="H12" s="3">
+        <v>712.04219999999998</v>
+      </c>
+      <c r="I12" s="3">
+        <v>718.89580000000001</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="3">
+        <v>719.91589999999997</v>
+      </c>
+      <c r="H13" s="3">
+        <v>722.38649999999996</v>
+      </c>
+      <c r="I13" s="3">
+        <v>730.19740000000002</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="3">
+        <v>722.87689999999998</v>
+      </c>
+      <c r="H14" s="3">
+        <v>724.59119999999996</v>
+      </c>
+      <c r="I14" s="3">
+        <v>731.44479999999999</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3">
+        <v>816.4778</v>
+      </c>
+      <c r="H15" s="3">
+        <v>817.12639999999999</v>
+      </c>
+      <c r="I15" s="3">
+        <v>821.61850000000004</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.96460000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3DD419-9423-4773-8D22-79468A270CE9}">
+  <dimension ref="D4:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3">
+        <v>529.42650000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>531.89700000000005</v>
+      </c>
+      <c r="I5" s="3">
+        <v>539.7079</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="3">
+        <v>530.88530000000003</v>
+      </c>
+      <c r="H6" s="3">
+        <v>532.59960000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>539.45320000000004</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="3">
+        <v>672.41099999999994</v>
+      </c>
+      <c r="H7" s="3">
+        <v>674.88160000000005</v>
+      </c>
+      <c r="I7" s="3">
+        <v>682.69240000000002</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3">
+        <v>685.69880000000001</v>
+      </c>
+      <c r="H8" s="3">
+        <v>686.34739999999999</v>
+      </c>
+      <c r="I8" s="3">
+        <v>690.83950000000004</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.99180000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="3">
+        <v>710.3279</v>
+      </c>
+      <c r="H9" s="3">
+        <v>712.04219999999998</v>
+      </c>
+      <c r="I9" s="3">
+        <v>718.89580000000001</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="3">
+        <v>719.91589999999997</v>
+      </c>
+      <c r="H10" s="3">
+        <v>722.38649999999996</v>
+      </c>
+      <c r="I10" s="3">
+        <v>730.19740000000002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3">
+        <v>722.87689999999998</v>
+      </c>
+      <c r="H11" s="3">
+        <v>724.59119999999996</v>
+      </c>
+      <c r="I11" s="3">
+        <v>731.44479999999999</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.99890000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3">
+        <v>816.4778</v>
+      </c>
+      <c r="H12" s="3">
+        <v>817.12639999999999</v>
+      </c>
+      <c r="I12" s="3">
+        <v>821.61850000000004</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.96460000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>